--- a/casenewview.xlsx
+++ b/casenewview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED4C8B2-9CB0-4326-8C2A-23485CE264CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900AFA7D-9494-45A0-BAE5-7FA5AC6B52C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +689,9 @@
       <c r="H8" t="s">
         <v>40</v>
       </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
